--- a/smart-bi-backend/src/main/resources/test_excel.xlsx
+++ b/smart-bi-backend/src/main/resources/test_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHubProject\smart-bi\smart-bi-backend\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AFF6B97-4C36-4DE1-8583-EFA2FCD5BDF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFE3C3B-F2BA-4EEB-851A-A5D969FAD598}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12120" xr2:uid="{229EEA6E-F8A7-2545-904A-8F0032855BE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -441,15 +440,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{260829AF-83D5-9D43-A57C-13A2BDCFFDE0}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="22.75"/>
+  <sheetFormatPr defaultColWidth="10.9375" defaultRowHeight="22.8"/>
   <cols>
-    <col min="4" max="4" width="10.76953125" style="5"/>
+    <col min="4" max="4" width="10.75" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -464,7 +463,7 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="7">
-        <v>44978</v>
+        <v>45343</v>
       </c>
       <c r="B2" s="6">
         <v>10</v>
@@ -474,7 +473,7 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="7">
-        <v>44979</v>
+        <v>45344</v>
       </c>
       <c r="B3" s="6">
         <v>20</v>
@@ -482,9 +481,41 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="7">
-        <v>44980</v>
+        <v>45345</v>
       </c>
       <c r="B4" s="6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="7">
+        <v>45346</v>
+      </c>
+      <c r="B5" s="6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="7">
+        <v>45347</v>
+      </c>
+      <c r="B6" s="6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="7">
+        <v>45348</v>
+      </c>
+      <c r="B7" s="6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="7">
+        <v>45349</v>
+      </c>
+      <c r="B8" s="6">
         <v>30</v>
       </c>
     </row>
